--- a/fall2018/psyc5316/lab2/pracTrials.xlsx
+++ b/fall2018/psyc5316/lab2/pracTrials.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="22">
   <si>
     <t>numberSet</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -90,7 +90,13 @@
     <t>right</t>
   </si>
   <si>
-    <t>listLength</t>
+    <t>setSize</t>
+  </si>
+  <si>
+    <t>block</t>
+  </si>
+  <si>
+    <t>practice</t>
   </si>
 </sst>
 </file>
@@ -464,274 +470,313 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A2" sqref="A2:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="4" max="4" width="10.83203125" style="1"/>
+    <col min="5" max="5" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
         <v>19</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>15</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2">
-        <v>1</v>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>21</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="1">
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1">
         <v>6</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>6</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>0</v>
       </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="1">
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1">
         <v>5</v>
       </c>
-      <c r="E3">
-        <v>3</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>1</v>
       </c>
-      <c r="C4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E4">
-        <v>4</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="F4">
+        <v>4</v>
+      </c>
+      <c r="G4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5">
         <v>2</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>0</v>
       </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>5</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6">
-        <v>3</v>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>21</v>
       </c>
       <c r="B6">
         <v>3</v>
       </c>
-      <c r="C6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E6">
-        <v>4</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7">
-        <v>3</v>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>21</v>
       </c>
       <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
         <v>0</v>
       </c>
-      <c r="C7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>2</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8">
-        <v>4</v>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>21</v>
       </c>
       <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8">
         <v>2</v>
       </c>
-      <c r="C8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>5</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9">
-        <v>4</v>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>21</v>
       </c>
       <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9">
         <v>0</v>
       </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>6</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10">
         <v>5</v>
       </c>
-      <c r="B10">
-        <v>4</v>
-      </c>
-      <c r="C10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="1" t="s">
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>8</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A11">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11">
         <v>5</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>0</v>
       </c>
-      <c r="C11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="F11">
+        <v>3</v>
+      </c>
+      <c r="G11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A12">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12">
         <v>6</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>1</v>
       </c>
-      <c r="C12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E12">
-        <v>4</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="F12">
+        <v>4</v>
+      </c>
+      <c r="G12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A13">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13">
         <v>6</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>0</v>
       </c>
-      <c r="C13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>6</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>18</v>
       </c>
     </row>
